--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2397.860442820695</v>
+        <v>1839.060030442771</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.6270528881508</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.94993124813981</v>
+        <v>13.44641299045078</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.43332118069251</v>
+        <v>10.68883997447806</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1852.74999999999</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>508.0000000000001</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.31430901573738</v>
+        <v>25.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.41539744121283</v>
+        <v>16.55358700954922</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.01720891576282</v>
+        <v>18.1553984840992</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.280116253693862</v>
+        <v>2.71773803005367</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.957912867326332</v>
+        <v>5.206834251576655</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.68569098426262</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1160,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1174,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1182,13 +1127,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1199,10 +1144,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1213,10 +1158,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1227,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1241,12 +1186,26 @@
         <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1349,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>205.2700000000007</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -1360,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>198.4900000000007</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
@@ -1371,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>203.7800000000007</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
@@ -1382,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>203.0600000000007</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11">
@@ -1393,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>202.3250000000007</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -1404,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>107.5750000000002</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1415,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>98.90000000000001</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>102.7750000000002</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -1437,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>109.9900000000002</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1448,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>108.0950000000002</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1459,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>188.6299999999988</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -1470,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
@@ -1481,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>170.7749999999981</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -1492,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>186.2299999999988</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -1503,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>185.8149999999981</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -1514,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1525,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36500000000051</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1536,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.40500000000051</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1547,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1558,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.26000000000051</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1569,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>83.55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1580,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1591,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>81.31500000000037</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1602,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>84.61500000000036</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1613,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.01500000000037</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1624,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>188.6299999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1635,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1646,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>170.7749999999974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1657,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>186.2299999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1668,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>185.8149999999975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1679,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>205.2700000000007</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
@@ -1690,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>198.4900000000007</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39">
@@ -1701,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>203.7800000000007</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40">
@@ -1712,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>203.0600000000007</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41">
@@ -1723,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>202.3250000000007</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>88.62999999999855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1781,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1792,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>70.77499999999742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1803,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>86.22999999999857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1814,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>85.81499999999753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1825,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>105.2700000000007</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
@@ -1836,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>98.49000000000066</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
@@ -1847,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>103.7800000000007</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
@@ -1858,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>103.0600000000007</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1869,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>102.3250000000007</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1927,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1938,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1949,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1960,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1971,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1982,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1993,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2004,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2015,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2026,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2037,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2048,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2059,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2070,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2081,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2092,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -2103,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -2114,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2125,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -2136,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -2147,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>14.87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -2158,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16.95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -2169,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2180,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2194,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2290,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2301,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2312,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2320,10 +2279,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2334,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2345,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2356,7 +2315,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2367,9 +2326,20 @@
         <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
